--- a/convertSincal/Default.xlsx
+++ b/convertSincal/Default.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\psdistribution\convertSincal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F6490B-0D0E-4554-B51D-AF84932D703D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2151C-00CB-45E9-8CA1-BF13C56D7AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="741" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,16 @@
     <sheet name="TRF3" sheetId="11" r:id="rId7"/>
     <sheet name="PROFILE" sheetId="5" r:id="rId8"/>
     <sheet name="SHUNT_PLACEMENT" sheetId="7" r:id="rId9"/>
+    <sheet name="PROFILE2" sheetId="19" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUS!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">LINE!$A$2:$S$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SHUNT!$A$2:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SOURCE!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TRF2'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TRF3'!$A$2:$U$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,27 +56,93 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PhuongPQ</author>
-    <author>tc={3E225BA5-8EFB-4679-A6F7-382A17665526}</author>
     <author>tc={3B907D77-D630-4363-8FA6-39DC51E6DDC1}</author>
     <author>tc={FA38E9CA-F9B5-4847-9761-7E7E354CB3FA}</author>
     <author>tc={FA38E9CA-F9B5-4848-9761-7E7E354CB3FA}</author>
+    <author>tc={3E225BA5-8EFB-4679-A6F7-382A17665526}</author>
+    <author>tc={3E225BA5-8EFB-467A-A6F7-382A17665526}</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Đơn vị công suất [kw,mw]
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Số lượng Recloser cần tối ưu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+          <t>Sbase[kva or mva]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">z[pu] của các đoạn dây ngắn, hoặc MC/DCL
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PSM, GS,NR,...</t>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PSM (maxIteration,Epsilon)</t>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PSM (maxIteration,Epsilon)</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NR(maxIteration,Epsilon)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,79 +150,155 @@
     Value,penality</t>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Value,penality</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Value,penality</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Value,penality</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="A15" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    PSM, GS,NR,...</t>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    Value,penality</t>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giới hạn, hàm phạt về điện áp cao</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giới hạn, hàm phạt về điện áp thấp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giới hạn, hàm phạt cosPhi nguồn (phát CSPK)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giới hạn, hàm phạt cosPhi nguồn (hút CSPK)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Số lượng Recloser cần tối ưu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Trọng số xét đến số lượng phụ tải</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Trọng số xét đến công suất phụ tải</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5265EB0F-E593-42E0-815A-9AF410BEA30D}</author>
+    <author>PhuongPQ</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    PSM (maxIteration,Epsilon)</t>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    PSM (maxIteration,Epsilon)</t>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NR(maxIteration,Epsilon)</t>
+    Số nút của tải</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Thời gian cho mỗi điểm của profile,
+0.25: 15 phút
+0.5: 30 phút
+1: 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tên profile</t>
         </r>
       </text>
     </comment>
@@ -259,8 +410,8 @@
             <charset val="1"/>
           </rPr>
           <t>Biểu đồ phụ tải
-0, bỏ trống: nếu fixed
-1,2… theo biểu đồ số 1,2
+bỏ trống: nếu fixed
+p1,p2… theo biểu đồ số p1,p2
 biểu đồ theo [pu]</t>
         </r>
       </text>
@@ -304,6 +455,25 @@
       </text>
     </comment>
     <comment ref="L2" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">plot kết quả tính toán; 1,2,5
+1: tên bus
+2: điện áp định mức bus
+3: ID bus
+4: điện áp bus [pu]
+5: điện áp bus [kv]
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -326,11 +496,10 @@
   <authors>
     <author>tc={0F66851E-D3AF-4780-9B30-F73A8715F065}</author>
     <author>tc={B7E55C45-E04A-4F95-86D3-DB2FF5464B13}</author>
-    <author>tc={CC05E439-91CA-4297-9258-92175AA92058}</author>
+    <author>PhuongPQ</author>
     <author>tc={95B0448B-4542-45B4-9B74-3DA0C9AF60E7}</author>
     <author>tc={358A766E-B6D1-4484-A68D-C6AF472CBC6E}</author>
     <author>tc={358A766E-B6D1-4485-A68D-C6AF472CBC6E}</author>
-    <author>PhuongPQ</author>
     <author>tc={57748AED-F455-477B-A70E-41AA9060EA7C}</author>
     <author>tc={57748AED-F455-477C-A70E-41AA9060EA7C}</author>
   </authors>
@@ -353,10 +522,26 @@
     </comment>
     <comment ref="D2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Điện áp định mức nút</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kV nút được VLOOPUP từ sheet BUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="E2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
@@ -367,7 +552,22 @@
     1-Inservice; 0- Out of service</t>
       </text>
     </comment>
-    <comment ref="F2" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>0/'': feeder or Swing BUS
+1: Generator of PV BUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -375,7 +575,7 @@
     Điện áp đặt tại cho Bus nguồn &gt;0</t>
       </text>
     </comment>
-    <comment ref="G2" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="H2" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -383,7 +583,7 @@
     Điện áp đặt tại cho Bus nguồn &gt;0</t>
       </text>
     </comment>
-    <comment ref="H2" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="I2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="J2" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -415,7 +615,7 @@
     Công suất Q cực đại (của Bus nguồn)</t>
       </text>
     </comment>
-    <comment ref="J2" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="K2" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -423,7 +623,7 @@
     Công suất Q cực đại (của Bus nguồn)</t>
       </text>
     </comment>
-    <comment ref="K2" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="L2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="M2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +651,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">plot kết quả tính toán; 1,2,5
+1: pn[kw]
+10: pn[mw]
+2: pgen[kw]
+20: pgen[mw]
+3: qgen[kw]
+30: qgen[mw]
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -474,9 +694,8 @@
   <authors>
     <author>tc={0F66851E-D3AF-4781-9B30-F73A8715F065}</author>
     <author>tc={B7E55C45-E04A-4F96-86D3-DB2FF5464B13}</author>
-    <author>tc={CC05E439-91CA-4298-9258-92175AA92058}</author>
+    <author>PhuongPQ</author>
     <author>tc={8A0DD14B-DA58-4394-9D76-FBA1B9E60E99}</author>
-    <author>PhuongPQ</author>
     <author>tc={95B0448B-4542-45B5-9B74-3DA0C9AF60E7}</author>
     <author>tc={3B0866D0-3B3B-4814-BCA5-0BD66910F391}</author>
   </authors>
@@ -499,10 +718,26 @@
     </comment>
     <comment ref="D2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Điện áp định mức nút</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kV nút được VLOOPUP từ sheet BUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="E2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
@@ -513,7 +748,7 @@
     &gt;0: capacitive; &lt;0 reactive</t>
       </text>
     </comment>
-    <comment ref="F2" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -523,11 +758,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Tổn thất cs tác dụng [kw]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+          <t>Tổn thất cs tác dụng [kw] tại điện áp định mức (của lưới)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -535,12 +770,61 @@
     1-Inservice; 0- Out of service</t>
       </text>
     </comment>
-    <comment ref="H2" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="H2" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1: Shunt có thể đóng/mở (branching)</t>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>plot kết quả tính toán; 1,10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1: q [kva]
+10: q[mva]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Các ghi chú</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -553,7 +837,6 @@
     <author>tc={2891B164-1E7E-4E24-95C3-F0A912F89DA9}</author>
     <author>PhuongPQ</author>
     <author>tc={B7E55C45-E04A-4F97-86D3-DB2FF5464B13}</author>
-    <author>tc={B7E55C45-E04A-4F98-86D3-DB2FF5464B13}</author>
     <author>tc={0BF2B5F5-B4BA-4852-8537-4440F390515E}</author>
     <author>tc={B526F4FC-1E23-45DD-8EA5-6339AF33B2D8}</author>
     <author>tc={B526F4FC-1E23-45DE-8EA5-6339AF33B2D8}</author>
@@ -604,12 +887,28 @@
     Tên nút</t>
       </text>
     </comment>
-    <comment ref="E2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Tên nút</t>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kV nút được VLOOPUP từ sheet BUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
@@ -626,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="G2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -634,7 +933,7 @@
     1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</t>
       </text>
     </comment>
-    <comment ref="H2" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="H2" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -642,7 +941,7 @@
     1: có thể đóng/mở (branching)</t>
       </text>
     </comment>
-    <comment ref="I2" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="I2" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -650,7 +949,7 @@
     1: có thể đóng/mở (branching)</t>
       </text>
     </comment>
-    <comment ref="J2" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="J2" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -716,6 +1015,36 @@
       </text>
     </comment>
     <comment ref="R2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Plot kết quả đầu ra:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1: pq[kw] đầu 1
+2: pq[kw] đầu 2
+11: pq[mw] đầu 1
+12: pq[mw] đầu 2
+31: i[a] đầu 1
+32: i[a] đầu 2
+100: rate%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
       <text>
         <r>
           <rPr>
@@ -738,8 +1067,7 @@
   <authors>
     <author>tc={2891B164-1E7E-4E25-95C3-F0A912F89DA9}</author>
     <author>PhuongPQ</author>
-    <author>tc={B7E55C45-E04A-4F99-86D3-DB2FF5464B13}</author>
-    <author>tc={B7E55C45-E04A-4F9A-86D3-DB2FF5464B13}</author>
+    <author>tc={B7E55C45-E04A-4F98-86D3-DB2FF5464B13}</author>
     <author>tc={0BF2B5F5-B4BA-4853-8537-4440F390515E}</author>
   </authors>
   <commentList>
@@ -787,12 +1115,28 @@
     Tên nút</t>
       </text>
     </comment>
-    <comment ref="E2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Tên nút</t>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kV nút được VLOOPUP từ sheet BUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
@@ -809,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="H2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -888,6 +1232,29 @@
       </text>
     </comment>
     <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Plot kết quả đầu ra:
+1: pq[kw] đầu 1
+2: pq[kw] đầu 2
+11: pq[mw] đầu 1
+12: pq[mw] đầu 2
+31: i[a] đầu 1
+32: i[a] đầu 2
+100: rate max (1,2)
+101: rate% cuộn 1
+102: rate% cuộn 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -910,9 +1277,7 @@
   <authors>
     <author>tc={2891B164-1E7E-4E26-95C3-F0A912F89DA9}</author>
     <author>PhuongPQ</author>
-    <author>tc={B7E55C45-E04A-4F9B-86D3-DB2FF5464B13}</author>
-    <author>tc={B7E55C45-E04A-4F9C-86D3-DB2FF5464B13}</author>
-    <author>tc={B7E55C45-E04A-4F9D-86D3-DB2FF5464B13}</author>
+    <author>tc={B7E55C45-E04A-4F99-86D3-DB2FF5464B13}</author>
     <author>tc={0BF2B5F5-B4BA-4854-8537-4440F390515E}</author>
   </authors>
   <commentList>
@@ -974,23 +1339,7 @@
     Tên nút</t>
       </text>
     </comment>
-    <comment ref="F2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Tên nút</t>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Tên nút</t>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+    <comment ref="H2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1012,7 +1361,7 @@
     1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</t>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
+    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1054,6 +1403,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Điện áp ngắn mạch 1-2 %</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Điện áp ngắn mạch 1-3 %</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
       <text>
         <r>
@@ -1064,7 +1441,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Điện áp ngắn mạch 1-2 %</t>
+          <t>Điện áp ngắn mạch 2-3 %</t>
         </r>
       </text>
     </comment>
@@ -1078,7 +1455,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Điện áp ngắn mạch 1-3 %</t>
+          <t>tổn thất ngắn mạch 1-2 kw</t>
         </r>
       </text>
     </comment>
@@ -1092,7 +1469,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Điện áp ngắn mạch 2-3 %</t>
+          <t>tổn thất ngắn mạch 1-3 kw</t>
         </r>
       </text>
     </comment>
@@ -1106,7 +1483,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>tổn thất ngắn mạch 1-2 kw</t>
+          <t>tổn thất ngắn mạch 2-3 kw</t>
         </r>
       </text>
     </comment>
@@ -1120,7 +1497,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>tổn thất ngắn mạch 1-3 kw</t>
+          <t>Tổn thất không tải</t>
         </r>
       </text>
     </comment>
@@ -1132,9 +1509,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>tổn thất ngắn mạch 2-3 kw</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dòng không tải</t>
         </r>
       </text>
     </comment>
@@ -1148,25 +1525,33 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Tổn thất không tải</t>
+          <t>Plot kết quả đầu ra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1: pq[kw] đầu 1
+2: pq[kw] đầu 2
+2: pq[kw] đầu 3
+11: pq[mw] đầu 1
+12: pq[mw] đầu 2
+13: pq[mw] đầu 3
+31: i[a] đầu 1
+32: i[a] đầu 2
+33: i[a] đầu 3
+100: rate max (1,2,3)
+101: rate% cuộn 1
+102: rate% cuộn 2
+103: rate% cuộn 3</t>
         </r>
       </text>
     </comment>
     <comment ref="U2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dòng không tải</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1188,6 +1573,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5265EB0F-E593-42DE-815A-9AF410BEA30D}</author>
+    <author>PhuongPQ</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
@@ -1196,6 +1582,37 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Số nút của tải</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Thời gian cho mỗi điểm của profile,
+0.25: 15 phút
+0.5: 30 phút
+1: 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tên profile</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1241,7 +1658,7 @@
     &gt;0: capacitive; &lt;0 reactive</t>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1251,11 +1668,35 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t>Số lượng bộ tụ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t>Tổn thất [kW] mỗi bộ ở điện áp định mức</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
+    <comment ref="F2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1263,7 +1704,7 @@
     1-Inservice; 0- Out of service</t>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1282,14 +1723,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>kV</t>
   </si>
   <si>
@@ -1299,9 +1737,6 @@
     <t>FLAG</t>
   </si>
   <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
     <t>PSM</t>
   </si>
   <si>
@@ -1314,45 +1749,21 @@
     <t>## BRANCHING</t>
   </si>
   <si>
-    <t>100,1e3</t>
-  </si>
-  <si>
-    <t>1.1,1e4</t>
-  </si>
-  <si>
-    <t>0.9,1e4</t>
-  </si>
-  <si>
-    <t>50,1e-5</t>
-  </si>
-  <si>
-    <t>-0.95,1e4</t>
-  </si>
-  <si>
     <t>yCoord</t>
   </si>
   <si>
     <t>xCoord</t>
   </si>
   <si>
-    <t>0.85,1e4</t>
-  </si>
-  <si>
     <t>## POWERFLOW</t>
   </si>
   <si>
     <t>CID</t>
   </si>
   <si>
-    <t>LoadProfile</t>
-  </si>
-  <si>
     <t>## PROFILE_DATA</t>
   </si>
   <si>
-    <t>time\NO PROFILE</t>
-  </si>
-  <si>
     <t>RO_Recloser_number</t>
   </si>
   <si>
@@ -1362,9 +1773,6 @@
     <t>RO_K_power</t>
   </si>
   <si>
-    <t>BR_RateMax[%]</t>
-  </si>
-  <si>
     <t>BR_Umax[pu]</t>
   </si>
   <si>
@@ -1389,51 +1797,21 @@
     <t>PF_option_NR</t>
   </si>
   <si>
-    <t>QLOAD [kvar]</t>
-  </si>
-  <si>
-    <t>PLOAD [kw]</t>
-  </si>
-  <si>
-    <t>Qshunt [kvar]</t>
-  </si>
-  <si>
     <t>FLAG2</t>
   </si>
   <si>
     <t>## QSHUNT_DATA: số liệu các bộ tụ (dùng cho bài toán tối ưu đặt tụ)</t>
   </si>
   <si>
-    <t>Qmax [kvar]</t>
-  </si>
-  <si>
-    <t>Qmin [kvar]</t>
-  </si>
-  <si>
-    <t>PF_Sbase[kva]</t>
-  </si>
-  <si>
     <t>vGen [pu]</t>
   </si>
   <si>
     <t>aGen [deg]</t>
   </si>
   <si>
-    <t>PGen [kw]</t>
-  </si>
-  <si>
-    <t>vGenProfile</t>
-  </si>
-  <si>
-    <t>pGenProfile</t>
-  </si>
-  <si>
     <t>## BUSDATA: thông tin cơ bản về BUS và phụ tải</t>
   </si>
   <si>
-    <t>## SETTING: các cài đặt tính toán</t>
-  </si>
-  <si>
     <t>## SOURCEDATA: thông tin về nguồn</t>
   </si>
   <si>
@@ -1467,9 +1845,6 @@
     <t>nLOAD</t>
   </si>
   <si>
-    <t>nFault[per km per year]</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -1479,15 +1854,6 @@
     <t>uk [%]</t>
   </si>
   <si>
-    <t>Sn [kvA]</t>
-  </si>
-  <si>
-    <t>pk [kw]</t>
-  </si>
-  <si>
-    <t>P0 [kw]</t>
-  </si>
-  <si>
     <t>i0 [%]</t>
   </si>
   <si>
@@ -1500,15 +1866,6 @@
     <t>BUS_ID3</t>
   </si>
   <si>
-    <t>pk2-3   [kw]</t>
-  </si>
-  <si>
-    <t>pk1-3   [kw]</t>
-  </si>
-  <si>
-    <t>pk1-2    [kw]</t>
-  </si>
-  <si>
     <t>uk2-3   [%]</t>
   </si>
   <si>
@@ -1518,40 +1875,145 @@
     <t>uk1-2   [%]</t>
   </si>
   <si>
-    <t>Sn3   [kvA]</t>
-  </si>
-  <si>
-    <t>Sn2   [kvA]</t>
-  </si>
-  <si>
-    <t>Sn1   [kvA]</t>
-  </si>
-  <si>
-    <t>P0     [kw]</t>
-  </si>
-  <si>
     <t>i0     [%]</t>
   </si>
   <si>
-    <t>dP   [kw]</t>
-  </si>
-  <si>
-    <t>NAME1</t>
-  </si>
-  <si>
-    <t>NAME2</t>
-  </si>
-  <si>
-    <t>NAME3</t>
-  </si>
-  <si>
     <t>NAME MBA2</t>
   </si>
   <si>
     <t>NAME MBA3</t>
   </si>
   <si>
-    <t>deltaP   [kW]</t>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>LENGTH [km]</t>
+  </si>
+  <si>
+    <t>nFault [per km per year]</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>PLOT</t>
+  </si>
+  <si>
+    <t>vGen Profile</t>
+  </si>
+  <si>
+    <t>pGen Profile</t>
+  </si>
+  <si>
+    <t>Load Profile</t>
+  </si>
+  <si>
+    <t>BR_RateMaxLine[%]</t>
+  </si>
+  <si>
+    <t>BR_RateMaxTRF[%]</t>
+  </si>
+  <si>
+    <t>## GENERAL</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>GE_PowerUnit</t>
+  </si>
+  <si>
+    <t>GE_Sbase</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>## SETTING: các cài đặt tính toán ## for comment</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>NAME BUS</t>
+  </si>
+  <si>
+    <t>PLOAD</t>
+  </si>
+  <si>
+    <t>QLOAD</t>
+  </si>
+  <si>
+    <t>AT1</t>
+  </si>
+  <si>
+    <t>Pgen</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>Qmin</t>
+  </si>
+  <si>
+    <t>Qshunt</t>
+  </si>
+  <si>
+    <t>deltaP</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Sn1</t>
+  </si>
+  <si>
+    <t>Sn2</t>
+  </si>
+  <si>
+    <t>Sn3</t>
+  </si>
+  <si>
+    <t>pk1-2</t>
+  </si>
+  <si>
+    <t>pk1-3</t>
+  </si>
+  <si>
+    <t>pk2-3</t>
+  </si>
+  <si>
+    <t>đơn vị kw</t>
+  </si>
+  <si>
+    <t>đơn vị kva,kw</t>
+  </si>
+  <si>
+    <t>1e-5</t>
+  </si>
+  <si>
+    <t>1e3</t>
+  </si>
+  <si>
+    <t>1e4</t>
+  </si>
+  <si>
+    <t>deltaTime</t>
+  </si>
+  <si>
+    <t>GE_ZSwitch</t>
+  </si>
+  <si>
+    <t>N1</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +2024,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,6 +2076,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1662,7 +2130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1697,9 +2165,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1718,50 +2200,1973 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profile: p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PROFILE!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PROFILE!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B61-4C1A-B6BE-A8728BE73A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1735167647"/>
+        <c:axId val="1735168063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1735167647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735168063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1735168063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735167647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profile: p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PROFILE2!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PROFILE2!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F935-46E8-863D-892AAEBB7423}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1735167647"/>
+        <c:axId val="1735168063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1735167647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735168063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1735168063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735167647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>281608</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108387</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>265044</xdr:rowOff>
+      <xdr:rowOff>111671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>391375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121684</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236482</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57806</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7139608" y="455544"/>
-          <a:ext cx="4376968" cy="4076215"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108387</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236482</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57806</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2036,17 +4441,28 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A7" dT="2023-01-28T06:56:05.47" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{3E225BA5-8EFB-4679-A6F7-382A17665526}">
+  <threadedComment ref="A8" dT="2022-05-18T16:37:20.04" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{3B907D77-D630-4363-8FA6-39DC51E6DDC1}">
+    <text>PSM, GS,NR,...</text>
+  </threadedComment>
+  <threadedComment ref="A9" dT="2022-05-18T16:37:20.04" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{FA38E9CA-F9B5-4847-9761-7E7E354CB3FA}">
+    <text>PSM (maxIteration,Epsilon)</text>
+  </threadedComment>
+  <threadedComment ref="A10" dT="2022-05-18T16:37:20.04" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{FA38E9CA-F9B5-4848-9761-7E7E354CB3FA}">
+    <text>PSM (maxIteration,Epsilon)</text>
+  </threadedComment>
+  <threadedComment ref="A14" dT="2023-01-28T06:56:05.47" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{3E225BA5-8EFB-4679-A6F7-382A17665526}">
     <text>Value,penality</text>
   </threadedComment>
-  <threadedComment ref="A11" dT="2022-05-18T16:37:20.04" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{3B907D77-D630-4363-8FA6-39DC51E6DDC1}">
-    <text>PSM, GS,NR,...</text>
+  <threadedComment ref="A15" dT="2023-01-28T06:56:05.47" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{3E225BA5-8EFB-467A-A6F7-382A17665526}">
+    <text>Value,penality</text>
   </threadedComment>
-  <threadedComment ref="B11" dT="2022-05-18T16:37:20.04" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{FA38E9CA-F9B5-4847-9761-7E7E354CB3FA}">
-    <text>PSM (maxIteration,Epsilon)</text>
-  </threadedComment>
-  <threadedComment ref="C11" dT="2022-05-18T16:37:20.04" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{FA38E9CA-F9B5-4848-9761-7E7E354CB3FA}">
-    <text>PSM (maxIteration,Epsilon)</text>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment10.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2022-04-28T14:45:40.42" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{5265EB0F-E593-42E0-815A-9AF410BEA30D}">
+    <text>Số nút của tải</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2085,22 +4501,19 @@
   <threadedComment ref="C2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F95-86D3-DB2FF5464B13}">
     <text>Tên nút</text>
   </threadedComment>
-  <threadedComment ref="D2" dT="2022-04-28T14:46:01.44" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{CC05E439-91CA-4297-9258-92175AA92058}">
-    <text>Điện áp định mức nút</text>
-  </threadedComment>
   <threadedComment ref="E2" dT="2022-05-11T17:06:45.32" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{95B0448B-4542-45B4-9B74-3DA0C9AF60E7}">
     <text>1-Inservice; 0- Out of service</text>
   </threadedComment>
-  <threadedComment ref="F2" dT="2022-05-19T17:33:11.58" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{358A766E-B6D1-4484-A68D-C6AF472CBC6E}">
+  <threadedComment ref="G2" dT="2022-05-19T17:33:11.58" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{358A766E-B6D1-4484-A68D-C6AF472CBC6E}">
     <text>Điện áp đặt tại cho Bus nguồn &gt;0</text>
   </threadedComment>
-  <threadedComment ref="G2" dT="2022-05-19T17:33:11.58" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{358A766E-B6D1-4485-A68D-C6AF472CBC6E}">
+  <threadedComment ref="H2" dT="2022-05-19T17:33:11.58" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{358A766E-B6D1-4485-A68D-C6AF472CBC6E}">
     <text>Điện áp đặt tại cho Bus nguồn &gt;0</text>
   </threadedComment>
-  <threadedComment ref="I2" dT="2022-05-19T17:54:19.91" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{57748AED-F455-477B-A70E-41AA9060EA7C}">
+  <threadedComment ref="J2" dT="2022-05-19T17:54:19.91" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{57748AED-F455-477B-A70E-41AA9060EA7C}">
     <text>Công suất Q cực đại (của Bus nguồn)</text>
   </threadedComment>
-  <threadedComment ref="J2" dT="2022-05-19T17:54:19.91" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{57748AED-F455-477C-A70E-41AA9060EA7C}">
+  <threadedComment ref="K2" dT="2022-05-19T17:54:19.91" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{57748AED-F455-477C-A70E-41AA9060EA7C}">
     <text>Công suất Q cực đại (của Bus nguồn)</text>
   </threadedComment>
 </ThreadedComments>
@@ -2113,9 +4526,6 @@
   </threadedComment>
   <threadedComment ref="C2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F96-86D3-DB2FF5464B13}">
     <text>Tên nút</text>
-  </threadedComment>
-  <threadedComment ref="D2" dT="2022-04-28T14:46:01.44" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{CC05E439-91CA-4298-9258-92175AA92058}">
-    <text>Điện áp định mức nút</text>
   </threadedComment>
   <threadedComment ref="E2" dT="2023-01-28T07:05:59.06" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{8A0DD14B-DA58-4394-9D76-FBA1B9E60E99}">
     <text>&gt;0: capacitive; &lt;0 reactive</text>
@@ -2135,9 +4545,6 @@
     <text>Số thứ tự Line, duy nhất &gt;1000</text>
   </threadedComment>
   <threadedComment ref="D2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F97-86D3-DB2FF5464B13}">
-    <text>Tên nút</text>
-  </threadedComment>
-  <threadedComment ref="E2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F98-86D3-DB2FF5464B13}">
     <text>Tên nút</text>
   </threadedComment>
   <threadedComment ref="G2" dT="2022-04-28T15:45:28.79" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{0BF2B5F5-B4BA-4852-8537-4440F390515E}">
@@ -2160,10 +4567,7 @@
   <threadedComment ref="A2" dT="2022-04-28T16:49:40.59" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{2891B164-1E7E-4E25-95C3-F0A912F89DA9}">
     <text>Số thứ tự Line, duy nhất &gt;1000</text>
   </threadedComment>
-  <threadedComment ref="D2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F99-86D3-DB2FF5464B13}">
-    <text>Tên nút</text>
-  </threadedComment>
-  <threadedComment ref="E2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F9A-86D3-DB2FF5464B13}">
+  <threadedComment ref="D2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F98-86D3-DB2FF5464B13}">
     <text>Tên nút</text>
   </threadedComment>
   <threadedComment ref="H2" dT="2022-04-28T15:45:28.79" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{0BF2B5F5-B4BA-4853-8537-4440F390515E}">
@@ -2177,16 +4581,10 @@
   <threadedComment ref="A2" dT="2022-04-28T16:49:40.59" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{2891B164-1E7E-4E26-95C3-F0A912F89DA9}">
     <text>Số thứ tự Line, duy nhất &gt;1000</text>
   </threadedComment>
-  <threadedComment ref="E2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F9B-86D3-DB2FF5464B13}">
+  <threadedComment ref="E2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F99-86D3-DB2FF5464B13}">
     <text>Tên nút</text>
   </threadedComment>
-  <threadedComment ref="F2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F9C-86D3-DB2FF5464B13}">
-    <text>Tên nút</text>
-  </threadedComment>
-  <threadedComment ref="G2" dT="2022-04-28T14:45:48.28" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{B7E55C45-E04A-4F9D-86D3-DB2FF5464B13}">
-    <text>Tên nút</text>
-  </threadedComment>
-  <threadedComment ref="J2" dT="2022-04-28T15:45:28.79" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{0BF2B5F5-B4BA-4854-8537-4440F390515E}">
+  <threadedComment ref="H2" dT="2022-04-28T15:45:28.79" personId="{3703CD0D-8673-48C8-BE86-0D4E8BCEF270}" id="{0BF2B5F5-B4BA-4854-8537-4440F390515E}">
     <text>1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</text>
   </threadedComment>
 </ThreadedComments>
@@ -2216,366 +4614,1010 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="13.8984375" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="1" max="1" width="22.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11">
+        <v>200</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11">
+        <v>200</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <v>200</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12"/>
+      <c r="C12" s="2"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="11">
+        <v>100</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="11">
+        <v>100</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="22" spans="1:1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="24" spans="1:1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="26" spans="1:1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.8984375" customWidth="1"/>
+    <col min="2" max="3" width="10.296875" customWidth="1"/>
+    <col min="4" max="5" width="9.09765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L14"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.59765625" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.27750000000000019</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="I4" s="18"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:M2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M4"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.69921875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="7.69921875" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.69921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" customWidth="1"/>
+    <col min="14" max="14" width="7.8984375" customWidth="1"/>
+    <col min="15" max="15" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1"/>
+        <v>29</v>
+      </c>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-    </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="3"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(B3,BUS!A:C,2,FALSE)</f>
+        <v>N1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>99999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-99999</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3"/>
-      <c r="L4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF00"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2584,67 +5626,119 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H5"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H8"/>
+      <selection activeCell="A4" sqref="A4:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.296875" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="e">
+        <f>VLOOKUP(B3,BUS!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="1" t="e">
+        <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="1">
+        <v>500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:J5" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF00"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2653,35 +5747,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R23"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:V17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.69921875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.69921875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.09765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.09765625" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="9.09765625" style="1"/>
-    <col min="17" max="17" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="29.69921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -2691,106 +5792,158 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="P2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="S2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="e">
+        <f>CONCATENATE(VLOOKUP(B3,BUS!A:C,2,FALSE),"-",VLOOKUP(C3,BUS!A:C,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="1" t="e">
+        <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>300</v>
+      </c>
       <c r="Q3" s="9"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2808,37 +5961,41 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2856,9 +6013,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2877,7 +6034,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2896,7 +6053,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2915,13 +6072,33 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="R18"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="28.2" x14ac:dyDescent="0.25">
       <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:S18" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2930,10 +6107,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2941,20 +6119,22 @@
     <col min="1" max="1" width="7.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.296875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="11" width="5.8984375" customWidth="1"/>
     <col min="12" max="12" width="6.69921875" customWidth="1"/>
     <col min="13" max="13" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.8984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -2965,102 +6145,133 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="e">
+        <f>CONCATENATE(VLOOKUP(B3,BUS!A:C,2,FALSE),"-",VLOOKUP(C3,BUS!A:C,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="1">
+        <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>400</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="15"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="14"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3076,44 +6287,34 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3129,10 +6330,8 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3148,10 +6347,8 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3167,10 +6364,8 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3186,49 +6381,34 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N20" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N21" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N22" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N24" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3237,10 +6417,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y25"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L13"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3248,36 +6429,35 @@
     <col min="1" max="1" width="7.09765625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.8984375" customWidth="1"/>
-    <col min="13" max="13" width="8.296875" customWidth="1"/>
-    <col min="14" max="14" width="7.296875" customWidth="1"/>
-    <col min="15" max="15" width="7.59765625" customWidth="1"/>
-    <col min="16" max="16" width="7.3984375" customWidth="1"/>
-    <col min="17" max="17" width="8.59765625" customWidth="1"/>
-    <col min="18" max="18" width="9.296875" customWidth="1"/>
-    <col min="19" max="20" width="7.8984375" customWidth="1"/>
-    <col min="21" max="21" width="7" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" customWidth="1"/>
+    <col min="11" max="11" width="8.296875" customWidth="1"/>
+    <col min="12" max="12" width="7.296875" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" customWidth="1"/>
+    <col min="16" max="16" width="9.296875" customWidth="1"/>
+    <col min="17" max="18" width="7.8984375" customWidth="1"/>
+    <col min="19" max="19" width="7" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.8984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -3285,91 +6465,138 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="L2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="P2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="e">
+        <f>CONCATENATE(VLOOKUP(B3,BUS!A:C,2,FALSE),"-",VLOOKUP(C3,BUS!A:C,2,FALSE),"-",VLOOKUP(D3,BUS!A:C,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1">
+        <v>18</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3378,11 +6605,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3391,11 +6618,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3404,14 +6631,14 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3420,14 +6647,14 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3436,14 +6663,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3468,9 +6693,10 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -3479,14 +6705,14 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -3495,11 +6721,11 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -3508,11 +6734,11 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -3521,14 +6747,12 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3553,9 +6777,8 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3580,9 +6803,8 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3607,9 +6829,8 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3634,86 +6855,103 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="W25" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V25" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:U2" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M26"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C29"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.8984375" customWidth="1"/>
-    <col min="2" max="3" width="9.09765625" style="1"/>
+    <col min="1" max="1" width="15.8984375" customWidth="1"/>
+    <col min="2" max="3" width="10.296875" customWidth="1"/>
+    <col min="4" max="5" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3722,91 +6960,153 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3814,49 +7114,93 @@
     <col min="1" max="1" width="9.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
